--- a/lib/Outputs/Russia/Russia_nationality.xlsx
+++ b/lib/Outputs/Russia/Russia_nationality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name_language</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>classified_country</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bio_language</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>location_language</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>russia:judge</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>russian:judge</t>
         </is>
       </c>
     </row>
@@ -478,20 +483,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,20 +520,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>dutch</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,20 +557,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>portuguese</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,20 +594,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>swahili (macrolanguage)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -590,20 +631,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>latvian</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -618,20 +668,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,20 +705,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -674,20 +742,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>italian</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>italian</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,20 +779,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>romanian</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -730,20 +816,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>romanian</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -758,20 +853,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>estonian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -782,16 +886,25 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -806,20 +919,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -834,12 +956,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -847,7 +969,16 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -862,20 +993,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -890,20 +1026,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>latvian</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,20 +1063,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -946,20 +1100,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -970,16 +1133,25 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+          <t>turkish</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -990,16 +1162,25 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>finnish</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1014,12 +1195,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1027,7 +1208,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1042,20 +1232,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1070,20 +1269,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1098,20 +1306,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>catalan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1122,16 +1339,25 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1146,20 +1372,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Earth</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1170,16 +1405,25 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>welsh</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1194,20 +1438,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1222,20 +1475,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>korean</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1250,12 +1512,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1263,7 +1525,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1278,12 +1549,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1291,7 +1562,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1306,20 +1586,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1334,20 +1623,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1362,20 +1660,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1390,12 +1697,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1403,7 +1710,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1418,20 +1734,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1446,12 +1771,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1459,7 +1784,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1474,20 +1808,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>latvian</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1502,20 +1845,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1530,20 +1882,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1558,20 +1919,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>turkish</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1586,20 +1956,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1614,20 +1993,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>danish</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1642,20 +2030,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1670,20 +2063,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1698,20 +2100,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>croatian</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1726,20 +2137,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1754,20 +2174,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>dutch</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,20 +2211,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>romanian</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1810,20 +2248,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1838,20 +2285,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>turkish</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>turkish</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1866,20 +2322,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>portuguese</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1894,20 +2359,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1922,20 +2396,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>afrikaans</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>slovenian</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1950,20 +2433,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>hungarian</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Moldova</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1978,20 +2470,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2006,20 +2507,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2034,20 +2544,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2062,20 +2581,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2090,20 +2618,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2118,20 +2655,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2146,20 +2692,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>turkish</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2174,20 +2729,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2202,20 +2762,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2226,16 +2795,25 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+          <t>albanian</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2250,20 +2828,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>norwegian</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2278,20 +2865,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2306,12 +2902,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>latvian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2319,7 +2915,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2330,16 +2935,25 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2354,12 +2968,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2367,7 +2981,16 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2382,12 +3005,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2395,7 +3018,16 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2410,20 +3042,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>turkish</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>turkish</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2438,20 +3075,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2466,20 +3112,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>albanian</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2494,20 +3149,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>lithuanian</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2522,20 +3186,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2550,20 +3223,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2578,20 +3260,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2606,20 +3297,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2634,12 +3334,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2647,7 +3347,16 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2662,20 +3371,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2690,20 +3408,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>romanian</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2718,20 +3445,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>tagalog</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2746,12 +3482,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2759,7 +3495,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2774,20 +3519,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2802,20 +3556,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>portuguese</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2830,20 +3593,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>albanian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2858,12 +3630,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2871,7 +3643,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2886,20 +3667,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>catalan</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2914,12 +3704,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2927,7 +3717,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2942,20 +3741,29 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>dutch</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>afrikaans</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2970,12 +3778,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2983,7 +3791,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2998,20 +3815,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3022,16 +3848,25 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3046,20 +3881,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>macedonian</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3074,20 +3918,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3102,20 +3955,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3130,20 +3992,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3158,12 +4029,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3171,7 +4042,16 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3186,20 +4066,29 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3214,20 +4103,25 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3242,20 +4136,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3270,20 +4169,25 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3298,20 +4202,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>hungarian</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3326,20 +4235,25 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3354,20 +4268,25 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3382,20 +4301,25 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>indonesian</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3410,20 +4334,25 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>hebrew</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>hebrew</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>romanian</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3438,12 +4367,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3451,7 +4380,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3466,20 +4400,25 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>czech</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3494,20 +4433,25 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swahili (macrolanguage)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3522,20 +4466,25 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3550,20 +4499,25 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3578,20 +4532,25 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>norwegian</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3606,20 +4565,25 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>Kazakhstan</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3634,20 +4598,25 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>spanish</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3662,20 +4631,25 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3690,20 +4664,25 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3718,20 +4697,25 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovenian</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>norwegian</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3746,20 +4730,25 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>Belarus</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>swedish</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3774,20 +4763,25 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>turkish</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3802,20 +4796,25 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>finnish</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>spanish</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3826,16 +4825,21 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3850,20 +4854,25 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3878,20 +4887,25 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3906,20 +4920,25 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>swedish</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>swedish</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3934,12 +4953,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3947,7 +4966,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3958,16 +4982,21 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
         <is>
           <t>latvian</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3982,20 +5011,25 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>portuguese</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4006,16 +5040,21 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
           <t>italian</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>italian</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4026,16 +5065,21 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
         <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4050,20 +5094,25 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>italian</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4074,16 +5123,21 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+          <t>albanian</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4098,20 +5152,25 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>norwegian</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4126,20 +5185,25 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>tagalog</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4154,20 +5218,25 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4182,20 +5251,25 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>danish</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4210,12 +5284,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>vietnamese</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4223,7 +5297,12 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4238,20 +5317,25 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>romanian</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4266,20 +5350,25 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4294,20 +5383,25 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4322,20 +5416,25 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4350,12 +5449,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4363,7 +5462,12 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4374,16 +5478,21 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4394,16 +5503,21 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4414,16 +5528,21 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4438,20 +5557,25 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4466,20 +5590,25 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4490,16 +5619,21 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
         <is>
           <t>tagalog</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4514,12 +5648,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>english</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4527,7 +5661,12 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4542,20 +5681,25 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>slovak</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>danish</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4570,20 +5714,25 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>lithuanian</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>Earth</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4598,20 +5747,25 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4626,20 +5780,25 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4654,20 +5813,25 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>catalan</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4682,20 +5846,25 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4710,20 +5879,25 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4738,20 +5912,25 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>finnish</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>catalan</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>romanian</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4762,16 +5941,21 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4782,16 +5966,21 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,20 +5995,25 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>german</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4834,20 +6028,25 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4862,20 +6061,25 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4890,20 +6094,25 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>tagalog</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4918,20 +6127,25 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>slovak</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>french</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4942,16 +6156,21 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4966,20 +6185,25 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4994,20 +6218,25 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>bulgarian</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,20 +6251,25 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E170" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>welsh</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5050,12 +6284,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5063,7 +6297,12 @@
           <t>russian</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5078,20 +6317,25 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5106,20 +6350,25 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5134,20 +6383,25 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5162,12 +6416,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5175,7 +6429,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5190,12 +6449,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5203,7 +6462,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5218,20 +6482,25 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>catalan</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5246,20 +6515,25 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5274,20 +6548,25 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5302,20 +6581,25 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>german</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5330,12 +6614,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5343,7 +6627,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5354,16 +6643,21 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
         <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5378,20 +6672,25 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5402,16 +6701,21 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5426,20 +6730,25 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,20 +6763,25 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>italian</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5482,20 +6796,25 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E187" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>tagalog</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5510,20 +6829,25 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>german</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5538,20 +6862,25 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5566,20 +6895,25 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>russian</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5594,20 +6928,25 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E191" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5622,12 +6961,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5635,7 +6974,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5650,20 +6994,25 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E193" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>finnish</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5678,20 +7027,25 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>Space</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E194" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>romanian</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5706,20 +7060,25 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>albanian</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5734,20 +7093,29 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5762,12 +7130,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ukrainian</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5775,7 +7143,12 @@
           <t>ukrainian</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5790,20 +7163,25 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5818,20 +7196,25 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>dutch</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
           <t>lithuanian</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5846,20 +7229,25 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>welsh</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E200" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
           <t>spanish</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5874,20 +7262,29 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5902,20 +7299,29 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>danish</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5930,20 +7336,29 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5958,20 +7373,29 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>polish</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5986,20 +7410,29 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6014,20 +7447,29 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>danish</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6038,16 +7480,25 @@
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6062,20 +7513,29 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6090,20 +7550,29 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>croatian</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6118,20 +7587,29 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>swedish</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6146,20 +7624,29 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>croatian</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6174,20 +7661,29 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6202,20 +7698,29 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6230,20 +7735,29 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6258,20 +7772,29 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6286,20 +7809,29 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6310,16 +7842,21 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6334,20 +7871,29 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6362,20 +7908,29 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6390,20 +7945,29 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>slovenian</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6418,20 +7982,29 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6442,16 +8015,25 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6466,20 +8048,29 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>indonesian</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6494,20 +8085,29 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>swahili (macrolanguage)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>dutch</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6522,20 +8122,29 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6550,20 +8159,29 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6578,20 +8196,29 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6606,20 +8233,29 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6634,20 +8270,29 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
+          <t>romanian</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6662,20 +8307,29 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>estonian</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>estonian</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6690,20 +8344,29 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6718,20 +8381,29 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6746,20 +8418,29 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6774,20 +8455,29 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>portuguese</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6802,20 +8492,29 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
+          <t>afrikaans</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6826,16 +8525,25 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
+          <t>somali</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6850,20 +8558,29 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
+          <t>tagalog</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6878,20 +8595,29 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6906,20 +8632,29 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>bulgarian</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6934,20 +8669,29 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
+          <t>slovak</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6962,20 +8706,29 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6990,20 +8743,29 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7018,20 +8780,29 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>ukrainian</t>
-        </is>
-      </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr"/>
+          <t>ukrainian</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7046,20 +8817,29 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
+          <t>macedonian</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7074,20 +8854,29 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7102,20 +8891,29 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7130,20 +8928,29 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7158,20 +8965,29 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>norwegian</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7182,16 +8998,25 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
+          <t>bulgarian</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7206,20 +9031,29 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
+          <t>indonesian</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>english</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7234,20 +9068,25 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7262,20 +9101,29 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>lithuanian</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7290,20 +9138,29 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr"/>
+          <t>russian</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7318,20 +9175,25 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
+          <t>latvian</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>latvian</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>swahili (macrolanguage)</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
